--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>19.11833636890289</v>
+        <v>0.317083941426</v>
       </c>
       <c r="R2">
-        <v>172.065027320126</v>
+        <v>2.853755472834</v>
       </c>
       <c r="S2">
-        <v>0.01340604545383059</v>
+        <v>0.0002178370823458896</v>
       </c>
       <c r="T2">
-        <v>0.01340604545383059</v>
+        <v>0.0002178370823458897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>17.80108664855178</v>
+        <v>5.056063447456221</v>
       </c>
       <c r="R3">
-        <v>160.209779836966</v>
+        <v>45.504571027106</v>
       </c>
       <c r="S3">
-        <v>0.01248237148532587</v>
+        <v>0.003473522199189025</v>
       </c>
       <c r="T3">
-        <v>0.01248237148532587</v>
+        <v>0.003473522199189026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>34.67097257281134</v>
+        <v>16.48596736356156</v>
       </c>
       <c r="R4">
-        <v>312.0387531553021</v>
+        <v>148.373706272054</v>
       </c>
       <c r="S4">
-        <v>0.02431177196963897</v>
+        <v>0.01132588113411578</v>
       </c>
       <c r="T4">
-        <v>0.02431177196963897</v>
+        <v>0.01132588113411578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>336.9171893677868</v>
+        <v>19.673485866741</v>
       </c>
       <c r="R5">
-        <v>3032.254704310082</v>
+        <v>177.061372800669</v>
       </c>
       <c r="S5">
-        <v>0.2362510559333041</v>
+        <v>0.01351571051347019</v>
       </c>
       <c r="T5">
-        <v>0.2362510559333041</v>
+        <v>0.0135157105134702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
         <v>313.7036594396246</v>
@@ -818,10 +818,10 @@
         <v>2823.332934956621</v>
       </c>
       <c r="S6">
-        <v>0.2199734033512004</v>
+        <v>0.2155148242015419</v>
       </c>
       <c r="T6">
-        <v>0.2199734033512004</v>
+        <v>0.2155148242015419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>610.9970243477597</v>
+        <v>1022.87250646616</v>
       </c>
       <c r="R7">
-        <v>5498.973219129838</v>
+        <v>9205.85255819544</v>
       </c>
       <c r="S7">
-        <v>0.4284396781450367</v>
+        <v>0.7027147493447451</v>
       </c>
       <c r="T7">
-        <v>0.4284396781450367</v>
+        <v>0.7027147493447451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N8">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q8">
-        <v>24.80639507036967</v>
+        <v>1.124091251367</v>
       </c>
       <c r="R8">
-        <v>223.257555633327</v>
+        <v>10.116821262303</v>
       </c>
       <c r="S8">
-        <v>0.01739459194786301</v>
+        <v>0.0007722521594348035</v>
       </c>
       <c r="T8">
-        <v>0.01739459194786301</v>
+        <v>0.0007722521594348036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q9">
-        <v>23.09723919305633</v>
+        <v>17.92420222254744</v>
       </c>
       <c r="R9">
-        <v>207.875152737507</v>
+        <v>161.317820002927</v>
       </c>
       <c r="S9">
-        <v>0.01619610788853797</v>
+        <v>0.01231395036272651</v>
       </c>
       <c r="T9">
-        <v>0.01619610788853797</v>
+        <v>0.01231395036272651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N10">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q10">
-        <v>44.986228221931</v>
+        <v>58.4442453955881</v>
       </c>
       <c r="R10">
-        <v>404.876053997379</v>
+        <v>525.9982085602929</v>
       </c>
       <c r="S10">
-        <v>0.03154497382526238</v>
+        <v>0.04015127300243081</v>
       </c>
       <c r="T10">
-        <v>0.03154497382526238</v>
+        <v>0.04015127300243081</v>
       </c>
     </row>
   </sheetData>
